--- a/nominate_ambassadors.xlsx
+++ b/nominate_ambassadors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita_ambassador_nominations/v04_stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/suvita-surveycto-ambassadors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95133F58-16C7-9A49-8DD5-53F7E6735323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B4E1C-70D7-6541-8C0E-593D8D0E472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="500" windowWidth="23900" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="428">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2588,9 +2588,6 @@
     <t>select_one yesno</t>
   </si>
   <si>
-    <t>if(${nominee_new}=1 or ${update_phone}=1, ${nominee_phone_new}, pulldata('nominees', 'nominee_phone', 'nominee_key', ${nominee_key}))</t>
-  </si>
-  <si>
     <t>concat(${nominee_name}, ' - ', if(${nominee_phone} = -1, 'Phone number unknown', ${nominee_phone}))</t>
   </si>
   <si>
@@ -2661,6 +2658,18 @@
   </si>
   <si>
     <t>nominate_ambassadors</t>
+  </si>
+  <si>
+    <t>if(${nominee_new} = 1 or ${update_phone} = 1, ${nominee_phone_new}, pulldata('nominees', 'nominee_phone', 'nominee_key', ${nominee_key}))</t>
+  </si>
+  <si>
+    <t>nominee_age</t>
+  </si>
+  <si>
+    <t>Enter ${nominee_name}'s approximate age in years.</t>
+  </si>
+  <si>
+    <t>. &gt;= 18 and . &lt;= 110</t>
   </si>
 </sst>
 </file>
@@ -5202,11 +5211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5458,7 +5467,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="G13" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>392</v>
@@ -5540,74 +5549,86 @@
       </c>
       <c r="D18" s="11"/>
       <c r="N18" s="79" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>370</v>
+        <v>398</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="N19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="K19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="79"/>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="D20" s="11"/>
       <c r="I20" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="G21" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="N20" s="79"/>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="I21" s="9" t="s">
-        <v>421</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D22" s="11"/>
       <c r="G22" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>420</v>
+        <v>427</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -5615,11 +5636,11 @@
         <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D23" s="11"/>
       <c r="N23" s="9" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5627,33 +5648,33 @@
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D24" s="11"/>
       <c r="N24" s="9" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D25" s="11"/>
+      <c r="N25" s="9" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="N26" s="9" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -5664,7 +5685,7 @@
       </c>
       <c r="D27" s="11"/>
       <c r="N27" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -5672,7 +5693,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D28" s="11"/>
       <c r="N28" s="9" t="s">
@@ -5684,47 +5705,47 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D29" s="11"/>
       <c r="N29" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="N30" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="M30" s="9" t="s">
+      <c r="M31" s="9" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="N31" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5732,38 +5753,50 @@
         <v>45</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D32" s="11"/>
       <c r="N32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="N33" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+    <row r="34" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B34" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D34" s="11"/>
-      <c r="W34" s="9"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D35" s="11"/>
+      <c r="W35" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6208,14 +6241,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304181937</v>
+        <v>2304201559</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>

--- a/nominate_ambassadors.xlsx
+++ b/nominate_ambassadors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/suvita-surveycto-ambassadors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B4E1C-70D7-6541-8C0E-593D8D0E472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9F65B-ABBE-E447-AA5E-17605AE7CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="439">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2670,6 +2670,39 @@
   </si>
   <si>
     <t>. &gt;= 18 and . &lt;= 110</t>
+  </si>
+  <si>
+    <t>nominee_sortby</t>
+  </si>
+  <si>
+    <t>Repeat group for nominee sortby.</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>num_raw</t>
+  </si>
+  <si>
+    <t>num_scaled</t>
+  </si>
+  <si>
+    <t>nominee_sortby_rg</t>
+  </si>
+  <si>
+    <t>substr(${nominee_label}, index() - 1, index())</t>
+  </si>
+  <si>
+    <t>coalesce(pulldata('characters_to_numbers', 'number', 'character', lower(${char})), 0)</t>
+  </si>
+  <si>
+    <t>${num_raw} div pow(100, index() - 1)</t>
+  </si>
+  <si>
+    <t>string-length(${nominee_label})</t>
+  </si>
+  <si>
+    <t>sum(${num_scaled})</t>
   </si>
 </sst>
 </file>
@@ -3434,7 +3467,741 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="178">
+  <dxfs count="278">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5211,11 +5978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5528,7 +6295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -5540,7 +6307,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -5552,7 +6319,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>399</v>
       </c>
@@ -5571,7 +6338,7 @@
       </c>
       <c r="N19" s="79"/>
     </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
@@ -5589,7 +6356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -5613,7 +6380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>69</v>
       </c>
@@ -5631,7 +6398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>45</v>
       </c>
@@ -5643,7 +6410,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -5655,7 +6422,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
@@ -5667,402 +6434,794 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>387</v>
+        <v>433</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="D27" s="11"/>
       <c r="N27" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="D28" s="11"/>
       <c r="N28" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D29" s="11"/>
       <c r="N29" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="N30" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="B31" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="80" t="s">
-        <v>414</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="N32" s="9">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="N33" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="N34" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="N35" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="N36" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="N33" s="9">
+      <c r="D39" s="11"/>
+      <c r="N39" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+    <row r="40" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B40" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C40" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D35" s="11"/>
-      <c r="W35" s="9"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D41" s="11"/>
+      <c r="W41" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:C1048576 F1:F1048576 I1:I1048576">
-    <cfRule type="expression" dxfId="177" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="209" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C1048576 I1:I1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="176" priority="106" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C1048576 I1:I1048576 O1:O25 O27:O1048576">
+    <cfRule type="expression" dxfId="276" priority="206" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="175" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="162" stopIfTrue="1">
       <formula>$A1="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="203" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="173" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="201" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="172" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="199" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="171" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="194" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="170" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="184" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="169" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="164" stopIfTrue="1">
       <formula>$A1="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="178" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="180" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="182" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N9 N11 B1:B1048576 N16:N1048576">
-    <cfRule type="expression" dxfId="165" priority="76" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N9 N11 B1:B1048576 N16:N26 N30 N32:N1048576">
+    <cfRule type="expression" dxfId="265" priority="176" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="164" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="174" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime", $A1="time")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="163" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="170" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="162" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="168" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V9 A11:V11 A10:M10 O10:V10 A12:M15 O12:V15 A16:V1048576">
-    <cfRule type="expression" dxfId="161" priority="63" stopIfTrue="1">
+  <conditionalFormatting sqref="A1:V9 A11:V11 A10:M10 O10:V10 A12:M15 O12:V15 A16:V25 A30:V30 A27:M29 O27:V29 A26:N26 P26:V26 A32:V1048576 A31:M31 O31:V31">
+    <cfRule type="expression" dxfId="261" priority="163" stopIfTrue="1">
       <formula>$A1="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="165" stopIfTrue="1">
       <formula>$A1="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="169" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="171" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="175" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime", $A1="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="177" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="179" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="181" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="183" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="185" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="188" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="195" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="200" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="202" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="204" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="205" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="207" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="208" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="210" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="142" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="127" stopIfTrue="1">
       <formula>OR($A10="calculate", $A10="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="141" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="122" stopIfTrue="1">
       <formula>$A10="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="123" stopIfTrue="1">
       <formula>$A10="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="124" stopIfTrue="1">
       <formula>OR($A10="audio", $A10="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="125" stopIfTrue="1">
       <formula>$A10="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="126" stopIfTrue="1">
       <formula>OR($A10="date", $A10="datetime", $A10="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="128" stopIfTrue="1">
       <formula>OR($A10="calculate", $A10="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="129" stopIfTrue="1">
       <formula>$A10="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="130" stopIfTrue="1">
       <formula>$A10="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="131" stopIfTrue="1">
       <formula>OR($A10="geopoint", $A10="geoshape", $A10="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="132" stopIfTrue="1">
       <formula>OR($A10="audio audit", $A10="text audit", $A10="speed violations count", $A10="speed violations list", $A10="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="133" stopIfTrue="1">
       <formula>OR($A10="username", $A10="phonenumber", $A10="start", $A10="end", $A10="deviceid", $A10="subscriberid", $A10="simserial", $A10="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="134" stopIfTrue="1">
       <formula>OR(AND(LEFT($A10, 16)="select_multiple ", LEN($A10)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A10, 17)))), AND(LEFT($A10, 11)="select_one ", LEN($A10)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A10, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="135" stopIfTrue="1">
       <formula>$A10="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="136" stopIfTrue="1">
       <formula>$A10="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="137" stopIfTrue="1">
       <formula>$A10="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="138" stopIfTrue="1">
       <formula>$A10="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="139" stopIfTrue="1">
       <formula>$A10="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="140" stopIfTrue="1">
       <formula>$A10="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="141" stopIfTrue="1">
       <formula>$A10="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N15">
-    <cfRule type="expression" dxfId="122" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="107" stopIfTrue="1">
       <formula>OR($A12="calculate", $A12="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N15">
-    <cfRule type="expression" dxfId="121" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="102" stopIfTrue="1">
       <formula>$A12="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="103" stopIfTrue="1">
       <formula>$A12="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="104" stopIfTrue="1">
       <formula>OR($A12="audio", $A12="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="105" stopIfTrue="1">
       <formula>$A12="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="106" stopIfTrue="1">
       <formula>OR($A12="date", $A12="datetime", $A12="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="108" stopIfTrue="1">
       <formula>OR($A12="calculate", $A12="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="109" stopIfTrue="1">
       <formula>$A12="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="110" stopIfTrue="1">
       <formula>$A12="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="111" stopIfTrue="1">
       <formula>OR($A12="geopoint", $A12="geoshape", $A12="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="112" stopIfTrue="1">
       <formula>OR($A12="audio audit", $A12="text audit", $A12="speed violations count", $A12="speed violations list", $A12="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="113" stopIfTrue="1">
       <formula>OR($A12="username", $A12="phonenumber", $A12="start", $A12="end", $A12="deviceid", $A12="subscriberid", $A12="simserial", $A12="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="114" stopIfTrue="1">
       <formula>OR(AND(LEFT($A12, 16)="select_multiple ", LEN($A12)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A12, 17)))), AND(LEFT($A12, 11)="select_one ", LEN($A12)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A12, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="115" stopIfTrue="1">
       <formula>$A12="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="116" stopIfTrue="1">
       <formula>$A12="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="117" stopIfTrue="1">
       <formula>$A12="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="118" stopIfTrue="1">
       <formula>$A12="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="119" stopIfTrue="1">
       <formula>$A12="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="120" stopIfTrue="1">
       <formula>$A12="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="121" stopIfTrue="1">
       <formula>$A12="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="102" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="101" stopIfTrue="1">
       <formula>OR($A16="calculate", $A16="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="expression" dxfId="99" priority="86" stopIfTrue="1">
+      <formula>OR($A27="calculate", $A27="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="expression" dxfId="98" priority="81" stopIfTrue="1">
+      <formula>$A27="enumerator"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="82" stopIfTrue="1">
+      <formula>$A27="file"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="83" stopIfTrue="1">
+      <formula>OR($A27="audio", $A27="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="84" stopIfTrue="1">
+      <formula>$A27="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="85" stopIfTrue="1">
+      <formula>OR($A27="date", $A27="datetime", $A27="time")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
+      <formula>OR($A27="calculate", $A27="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+      <formula>$A27="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+      <formula>$A27="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+      <formula>OR($A27="geopoint", $A27="geoshape", $A27="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="91" stopIfTrue="1">
+      <formula>OR($A27="audio audit", $A27="text audit", $A27="speed violations count", $A27="speed violations list", $A27="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
+      <formula>OR($A27="username", $A27="phonenumber", $A27="start", $A27="end", $A27="deviceid", $A27="subscriberid", $A27="simserial", $A27="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A27, 16)="select_multiple ", LEN($A27)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A27, 17)))), AND(LEFT($A27, 11)="select_one ", LEN($A27)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A27, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="94" stopIfTrue="1">
+      <formula>$A27="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="95" stopIfTrue="1">
+      <formula>$A27="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="96" stopIfTrue="1">
+      <formula>$A27="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="97" stopIfTrue="1">
+      <formula>$A27="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="98" stopIfTrue="1">
+      <formula>$A27="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="99" stopIfTrue="1">
+      <formula>$A27="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="100" stopIfTrue="1">
+      <formula>$A27="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="expression" dxfId="79" priority="66" stopIfTrue="1">
+      <formula>OR($A28="calculate", $A28="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="expression" dxfId="78" priority="61" stopIfTrue="1">
+      <formula>$A28="enumerator"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="62" stopIfTrue="1">
+      <formula>$A28="file"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="63" stopIfTrue="1">
+      <formula>OR($A28="audio", $A28="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="64" stopIfTrue="1">
+      <formula>$A28="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="65" stopIfTrue="1">
+      <formula>OR($A28="date", $A28="datetime", $A28="time")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="67" stopIfTrue="1">
+      <formula>OR($A28="calculate", $A28="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="68" stopIfTrue="1">
+      <formula>$A28="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
+      <formula>$A28="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
+      <formula>OR($A28="geopoint", $A28="geoshape", $A28="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
+      <formula>OR($A28="audio audit", $A28="text audit", $A28="speed violations count", $A28="speed violations list", $A28="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="72" stopIfTrue="1">
+      <formula>OR($A28="username", $A28="phonenumber", $A28="start", $A28="end", $A28="deviceid", $A28="subscriberid", $A28="simserial", $A28="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A28, 16)="select_multiple ", LEN($A28)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A28, 17)))), AND(LEFT($A28, 11)="select_one ", LEN($A28)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A28, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
+      <formula>$A28="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="75" stopIfTrue="1">
+      <formula>$A28="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="76" stopIfTrue="1">
+      <formula>$A28="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="77" stopIfTrue="1">
+      <formula>$A28="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="78" stopIfTrue="1">
+      <formula>$A28="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="79" stopIfTrue="1">
+      <formula>$A28="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
+      <formula>$A28="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="expression" dxfId="59" priority="46" stopIfTrue="1">
+      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
+      <formula>$A29="enumerator"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
+      <formula>$A29="file"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="43" stopIfTrue="1">
+      <formula>OR($A29="audio", $A29="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="44" stopIfTrue="1">
+      <formula>$A29="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="45" stopIfTrue="1">
+      <formula>OR($A29="date", $A29="datetime", $A29="time")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="47" stopIfTrue="1">
+      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
+      <formula>$A29="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+      <formula>$A29="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="50" stopIfTrue="1">
+      <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
+      <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+      <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="54" stopIfTrue="1">
+      <formula>$A29="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="55" stopIfTrue="1">
+      <formula>$A29="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="56" stopIfTrue="1">
+      <formula>$A29="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="57" stopIfTrue="1">
+      <formula>$A29="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="58" stopIfTrue="1">
+      <formula>$A29="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="59" stopIfTrue="1">
+      <formula>$A29="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="60" stopIfTrue="1">
+      <formula>$A29="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+      <formula>$A26="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="expression" dxfId="38" priority="21" stopIfTrue="1">
+      <formula>$A26="enumerator"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="22" stopIfTrue="1">
+      <formula>$A26="file"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="23" stopIfTrue="1">
+      <formula>OR($A26="audio", $A26="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="24" stopIfTrue="1">
+      <formula>$A26="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="25" stopIfTrue="1">
+      <formula>OR($A26="date", $A26="datetime", $A26="time")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="26" stopIfTrue="1">
+      <formula>OR($A26="calculate", $A26="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="27" stopIfTrue="1">
+      <formula>$A26="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="28" stopIfTrue="1">
+      <formula>$A26="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="29" stopIfTrue="1">
+      <formula>OR($A26="geopoint", $A26="geoshape", $A26="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+      <formula>OR($A26="audio audit", $A26="text audit", $A26="speed violations count", $A26="speed violations list", $A26="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+      <formula>OR($A26="username", $A26="phonenumber", $A26="start", $A26="end", $A26="deviceid", $A26="subscriberid", $A26="simserial", $A26="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A26, 16)="select_multiple ", LEN($A26)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A26, 17)))), AND(LEFT($A26, 11)="select_one ", LEN($A26)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A26, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
+      <formula>$A26="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+      <formula>$A26="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+      <formula>$A26="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
+      <formula>$A26="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
+      <formula>$A26="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="39" stopIfTrue="1">
+      <formula>$A26="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="40" stopIfTrue="1">
+      <formula>$A26="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+      <formula>OR($A31="calculate", $A31="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+      <formula>$A31="enumerator"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+      <formula>$A31="file"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+      <formula>OR($A31="audio", $A31="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+      <formula>$A31="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+      <formula>OR($A31="date", $A31="datetime", $A31="time")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+      <formula>OR($A31="calculate", $A31="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>$A31="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>$A31="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+      <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+      <formula>OR($A31="username", $A31="phonenumber", $A31="start", $A31="end", $A31="deviceid", $A31="subscriberid", $A31="simserial", $A31="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+      <formula>$A31="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
+      <formula>$A31="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
+      <formula>$A31="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
+      <formula>$A31="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18" stopIfTrue="1">
+      <formula>$A31="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>$A31="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -6175,22 +7334,22 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A6:H1980">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="201" priority="1">
       <formula>NOT($A6=$A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H4">
-    <cfRule type="expression" dxfId="100" priority="104">
+    <cfRule type="expression" dxfId="200" priority="104">
       <formula>NOT($A4=$A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H2 A5:H5">
-    <cfRule type="expression" dxfId="99" priority="105">
+    <cfRule type="expression" dxfId="199" priority="105">
       <formula>NOT($A2=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H3">
-    <cfRule type="expression" dxfId="98" priority="108">
+    <cfRule type="expression" dxfId="198" priority="108">
       <formula>NOT($A3=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6248,7 +7407,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304201559</v>
+        <v>2304251739</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
@@ -10225,348 +11384,348 @@
     <mergeCell ref="A91:B91"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:C6 H6 L6">
-    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="97" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 L6 S6">
-    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="94" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6 B6:F6">
-    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="91" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J6 B6:F6">
-    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="89" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J6 B6:F6">
-    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="87" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 H6">
-    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 H6">
-    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="82" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="76" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="78" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="80" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 R6">
-    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="74" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 H6">
-    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="72" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 H6">
-    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="70" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="68" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6 L6:O6 Q6:S6 W6:AD6">
-    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="67" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="69" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="71" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="73" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="75" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="77" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="79" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="81" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="83" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="84" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="88" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="90" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="92" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="93" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="95" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="96" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="98" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="66" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:V6">
-    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="48" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="49" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="50" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="51" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="52" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="53" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="54" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="55" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="56" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="57" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="59" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="60" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="61" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="62" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="63" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="64" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="65" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="47" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="46" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="42" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="43" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="41" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="40" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="39" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="32" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="30" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="19" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="20" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="21" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="22" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="23" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="24" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="25" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="26" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="27" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="28" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="31" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="33" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="34" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="35" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="36" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="37" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="38" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="7" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="8" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="9" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="10" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="12" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="13" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="15" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="16" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="17" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="18" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/nominate_ambassadors.xlsx
+++ b/nominate_ambassadors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/suvita-surveycto-ambassadors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9F65B-ABBE-E447-AA5E-17605AE7CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DEDD93-0576-B74E-812F-03BEDEAFF00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,346 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jake Hughey</author>
+  </authors>
+  <commentList>
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{B7150BEC-8067-7741-B022-16559B120E50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>create a new nominee if desired</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{889BBA01-733F-8D4E-B3A3-5A643DDA6E00}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>check if that nominee's phone number is unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{CC04C8C0-9378-BB41-A38F-F3F0D346D005}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>will not be shown for previous nominees, so designed to ensure the nominator actually knows the nominee.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{17C81C03-E8EB-B74C-B6ED-5EAEA2D3AF92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>convert string to decimal number for sortby.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{FD718DC6-39D6-284C-BD24-A757F9C2FD5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>get the current character</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="0" shapeId="0" xr:uid="{582D1773-CDB7-E24E-B494-2FCFE44917FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>convert it to a number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0" xr:uid="{08DC3C15-6806-1746-812B-BC22715E5736}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>scale it based on position in the string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0" shapeId="0" xr:uid="{DA46228D-8485-094B-ADD1-039EA05F05B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sum the scaled numbers to get the value for sortby</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N34" authorId="0" shapeId="0" xr:uid="{610D85F8-DF9E-9F4D-B109-9DAF31B15ADB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>check that all nominees are unique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N36" authorId="0" shapeId="0" xr:uid="{B7F01F22-7B9A-C241-8356-C00ED81D1030}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>check that all phone numbers are unique</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="439">
   <si>
@@ -2709,7 +3049,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2849,6 +3189,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3594,740 +3947,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBBBB59"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4BACC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBBBB59"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4BACC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBBBB59"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4BACC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBBBB59"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4BACC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBBBB59"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4BACC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -5004,6 +4623,740 @@
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBB59"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5977,12 +6330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6905,328 +7258,329 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="99" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="86" stopIfTrue="1">
       <formula>OR($A27="calculate", $A27="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="98" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="81" stopIfTrue="1">
       <formula>$A27="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="82" stopIfTrue="1">
       <formula>$A27="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="83" stopIfTrue="1">
       <formula>OR($A27="audio", $A27="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="84" stopIfTrue="1">
       <formula>$A27="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="85" stopIfTrue="1">
       <formula>OR($A27="date", $A27="datetime", $A27="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="87" stopIfTrue="1">
       <formula>OR($A27="calculate", $A27="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="88" stopIfTrue="1">
       <formula>$A27="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="89" stopIfTrue="1">
       <formula>$A27="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="90" stopIfTrue="1">
       <formula>OR($A27="geopoint", $A27="geoshape", $A27="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="91" stopIfTrue="1">
       <formula>OR($A27="audio audit", $A27="text audit", $A27="speed violations count", $A27="speed violations list", $A27="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="92" stopIfTrue="1">
       <formula>OR($A27="username", $A27="phonenumber", $A27="start", $A27="end", $A27="deviceid", $A27="subscriberid", $A27="simserial", $A27="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="93" stopIfTrue="1">
       <formula>OR(AND(LEFT($A27, 16)="select_multiple ", LEN($A27)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A27, 17)))), AND(LEFT($A27, 11)="select_one ", LEN($A27)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A27, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="94" stopIfTrue="1">
       <formula>$A27="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="95" stopIfTrue="1">
       <formula>$A27="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="96" stopIfTrue="1">
       <formula>$A27="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="97" stopIfTrue="1">
       <formula>$A27="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="98" stopIfTrue="1">
       <formula>$A27="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="99" stopIfTrue="1">
       <formula>$A27="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="100" stopIfTrue="1">
       <formula>$A27="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="79" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="66" stopIfTrue="1">
       <formula>OR($A28="calculate", $A28="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="78" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="61" stopIfTrue="1">
       <formula>$A28="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="62" stopIfTrue="1">
       <formula>$A28="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="63" stopIfTrue="1">
       <formula>OR($A28="audio", $A28="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="64" stopIfTrue="1">
       <formula>$A28="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="65" stopIfTrue="1">
       <formula>OR($A28="date", $A28="datetime", $A28="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="67" stopIfTrue="1">
       <formula>OR($A28="calculate", $A28="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="68" stopIfTrue="1">
       <formula>$A28="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="69" stopIfTrue="1">
       <formula>$A28="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="70" stopIfTrue="1">
       <formula>OR($A28="geopoint", $A28="geoshape", $A28="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="71" stopIfTrue="1">
       <formula>OR($A28="audio audit", $A28="text audit", $A28="speed violations count", $A28="speed violations list", $A28="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="72" stopIfTrue="1">
       <formula>OR($A28="username", $A28="phonenumber", $A28="start", $A28="end", $A28="deviceid", $A28="subscriberid", $A28="simserial", $A28="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="73" stopIfTrue="1">
       <formula>OR(AND(LEFT($A28, 16)="select_multiple ", LEN($A28)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A28, 17)))), AND(LEFT($A28, 11)="select_one ", LEN($A28)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A28, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="74" stopIfTrue="1">
       <formula>$A28="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="75" stopIfTrue="1">
       <formula>$A28="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="76" stopIfTrue="1">
       <formula>$A28="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="77" stopIfTrue="1">
       <formula>$A28="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="78" stopIfTrue="1">
       <formula>$A28="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="79" stopIfTrue="1">
       <formula>$A28="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="80" stopIfTrue="1">
       <formula>$A28="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="59" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="46" stopIfTrue="1">
       <formula>OR($A29="calculate", $A29="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="41" stopIfTrue="1">
       <formula>$A29="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="42" stopIfTrue="1">
       <formula>$A29="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="43" stopIfTrue="1">
       <formula>OR($A29="audio", $A29="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="44" stopIfTrue="1">
       <formula>$A29="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="45" stopIfTrue="1">
       <formula>OR($A29="date", $A29="datetime", $A29="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="47" stopIfTrue="1">
       <formula>OR($A29="calculate", $A29="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="48" stopIfTrue="1">
       <formula>$A29="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="49" stopIfTrue="1">
       <formula>$A29="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="50" stopIfTrue="1">
       <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="51" stopIfTrue="1">
       <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="52" stopIfTrue="1">
       <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="53" stopIfTrue="1">
       <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="54" stopIfTrue="1">
       <formula>$A29="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="55" stopIfTrue="1">
       <formula>$A29="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="56" stopIfTrue="1">
       <formula>$A29="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="57" stopIfTrue="1">
       <formula>$A29="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="58" stopIfTrue="1">
       <formula>$A29="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="59" stopIfTrue="1">
       <formula>$A29="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="60" stopIfTrue="1">
       <formula>$A29="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="37" stopIfTrue="1">
       <formula>$A26="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="expression" dxfId="38" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="21" stopIfTrue="1">
       <formula>$A26="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="22" stopIfTrue="1">
       <formula>$A26="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="23" stopIfTrue="1">
       <formula>OR($A26="audio", $A26="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="24" stopIfTrue="1">
       <formula>$A26="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="25" stopIfTrue="1">
       <formula>OR($A26="date", $A26="datetime", $A26="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="26" stopIfTrue="1">
       <formula>OR($A26="calculate", $A26="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="27" stopIfTrue="1">
       <formula>$A26="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="28" stopIfTrue="1">
       <formula>$A26="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="29" stopIfTrue="1">
       <formula>OR($A26="geopoint", $A26="geoshape", $A26="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="30" stopIfTrue="1">
       <formula>OR($A26="audio audit", $A26="text audit", $A26="speed violations count", $A26="speed violations list", $A26="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="31" stopIfTrue="1">
       <formula>OR($A26="username", $A26="phonenumber", $A26="start", $A26="end", $A26="deviceid", $A26="subscriberid", $A26="simserial", $A26="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
       <formula>OR(AND(LEFT($A26, 16)="select_multiple ", LEN($A26)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A26, 17)))), AND(LEFT($A26, 11)="select_one ", LEN($A26)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A26, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="33" stopIfTrue="1">
       <formula>$A26="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="34" stopIfTrue="1">
       <formula>$A26="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="35" stopIfTrue="1">
       <formula>$A26="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="36" stopIfTrue="1">
       <formula>$A26="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="38" stopIfTrue="1">
       <formula>$A26="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="39" stopIfTrue="1">
       <formula>$A26="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="40" stopIfTrue="1">
       <formula>$A26="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
       <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="1" stopIfTrue="1">
       <formula>$A31="enumerator"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="2" stopIfTrue="1">
       <formula>$A31="file"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="3" stopIfTrue="1">
       <formula>OR($A31="audio", $A31="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
       <formula>$A31="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="5" stopIfTrue="1">
       <formula>OR($A31="date", $A31="datetime", $A31="time")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="7" stopIfTrue="1">
       <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="8" stopIfTrue="1">
       <formula>$A31="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="9" stopIfTrue="1">
       <formula>$A31="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="10" stopIfTrue="1">
       <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="11" stopIfTrue="1">
       <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="12" stopIfTrue="1">
       <formula>OR($A31="username", $A31="phonenumber", $A31="start", $A31="end", $A31="deviceid", $A31="subscriberid", $A31="simserial", $A31="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="13" stopIfTrue="1">
       <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="14" stopIfTrue="1">
       <formula>$A31="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="15" stopIfTrue="1">
       <formula>$A31="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
       <formula>$A31="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="17" stopIfTrue="1">
       <formula>$A31="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="18" stopIfTrue="1">
       <formula>$A31="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="19" stopIfTrue="1">
       <formula>$A31="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="20" stopIfTrue="1">
       <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7334,22 +7688,22 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A6:H1980">
-    <cfRule type="expression" dxfId="201" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>NOT($A6=$A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H4">
-    <cfRule type="expression" dxfId="200" priority="104">
+    <cfRule type="expression" dxfId="100" priority="104">
       <formula>NOT($A4=$A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H2 A5:H5">
-    <cfRule type="expression" dxfId="199" priority="105">
+    <cfRule type="expression" dxfId="99" priority="105">
       <formula>NOT($A2=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H3">
-    <cfRule type="expression" dxfId="198" priority="108">
+    <cfRule type="expression" dxfId="98" priority="108">
       <formula>NOT($A3=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7407,7 +7761,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304251739</v>
+        <v>2304260931</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
@@ -11384,348 +11738,348 @@
     <mergeCell ref="A91:B91"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:C6 H6 L6">
-    <cfRule type="expression" dxfId="197" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 L6 S6">
-    <cfRule type="expression" dxfId="196" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6 B6:F6">
-    <cfRule type="expression" dxfId="195" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J6 B6:F6">
-    <cfRule type="expression" dxfId="194" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J6 B6:F6">
-    <cfRule type="expression" dxfId="193" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 H6">
-    <cfRule type="expression" dxfId="192" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 H6">
-    <cfRule type="expression" dxfId="191" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="190" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 R6">
-    <cfRule type="expression" dxfId="187" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 H6">
-    <cfRule type="expression" dxfId="186" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 H6">
-    <cfRule type="expression" dxfId="185" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="184" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6 L6:O6 Q6:S6 W6:AD6">
-    <cfRule type="expression" dxfId="183" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="165" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:V6">
-    <cfRule type="expression" dxfId="164" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="146" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="145" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="144" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="143" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="140" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="139" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="138" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="137" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="136" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="135" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$A6="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>$A6="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
